--- a/src/test/resources/excel/template/single.xlsx
+++ b/src/test/resources/excel/template/single.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6296DD1C-584D-44FD-8E84-6358F9C3035D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{477C8EC9-BE4C-4576-AAC4-9CB6EA23893C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="単一シート出力テンプレート" sheetId="1" r:id="rId1"/>
+    <sheet name="単一シート出力テンプレート" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">単一シート出力テンプレート!$A$1:$G$24</definedName>
@@ -18,12 +18,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{57473513-E4A5-4997-B2C3-6F27C940ED37}">
       <text>
         <r>
           <rPr>
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{9CB81FD1-9170-4651-9AF3-A4FA15B09327}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{AD3AD4B5-DB0C-4B6A-A030-760C5D63FC10}">
       <text>
         <r>
           <rPr>
@@ -135,86 +135,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.name}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.price}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.count}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品リスト</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${app.text}</t>
+  </si>
+  <si>
+    <t>${app.text}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${app.number}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${app.title} 申込書</t>
+    <rPh sb="13" eb="16">
+      <t>モウシコミショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>商品コード</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>商品名</t>
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>単価</t>
     <rPh sb="0" eb="2">
       <t>タンカ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>数量</t>
     <rPh sb="0" eb="2">
       <t>スウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>金額</t>
-    <rPh sb="0" eb="2">
-      <t>キンガク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${item.code}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${item.name}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${item.price}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${item.count}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品リスト</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.text}</t>
-  </si>
-  <si>
-    <t>${app.text}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.number}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.title} 申込書</t>
-    <rPh sb="13" eb="16">
-      <t>モウシコミショ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
@@ -242,12 +242,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
@@ -264,12 +258,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -400,7 +400,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -414,8 +414,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -432,12 +432,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="6" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -473,14 +473,14 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>157370</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>33132</xdr:rowOff>
+      <xdr:rowOff>182218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5928587D-9289-43FD-84C8-6A3C0BE2209C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E06088B5-A154-4B92-8730-58E92A5A57A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -488,8 +488,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5781261" y="1374914"/>
-          <a:ext cx="2352261" cy="455544"/>
+          <a:off x="5784988" y="1434135"/>
+          <a:ext cx="2344807" cy="605458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -519,6 +519,18 @@
             <a:rPr lang="ja-JP" altLang="en-US"/>
             <a:t>本シートは保護シートです。</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>保護パスワードは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>cotos</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -539,10 +551,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1140" name="図 3">
+        <xdr:cNvPr id="3" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31A3B2E-97AB-450E-B83B-D746C60515EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAED2016-6F6D-4C93-B0C2-AA7AD2EBA91C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -889,11 +901,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524F9D9D-5F5D-44B4-9C24-6FD4BE352E36}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -909,7 +921,7 @@
     <row r="1" spans="1:6"/>
     <row r="2" spans="1:6" ht="24.75" customHeight="1">
       <c r="C2" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -919,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -935,7 +947,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -951,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -959,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -970,38 +982,38 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" thickBot="1">
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F12" s="15" t="e">
         <f>D12*E12</f>
@@ -1026,11 +1038,11 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C404" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection password="C404" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/src/test/resources/excel/template/single.xlsx
+++ b/src/test/resources/excel/template/single.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{477C8EC9-BE4C-4576-AAC4-9CB6EA23893C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72D093E-62FF-4088-889D-E1D0AA605E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単一シート出力テンプレート" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">単一シート出力テンプレート!$A$1:$G$24</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -65,7 +78,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>jx:each(items="app.itemList" var="item" lastCell="F12")</t>
+          <t>jx:each(items="inputEntity.app.itemList" var="item" lastCell="F12")</t>
         </r>
       </text>
     </comment>
@@ -161,24 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${app.text}</t>
-  </si>
-  <si>
-    <t>${app.text}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.number}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.title} 申込書</t>
-    <rPh sb="13" eb="16">
-      <t>モウシコミショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品コード</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -208,6 +203,25 @@
   </si>
   <si>
     <t>${item.code}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.app.title} 申込書</t>
+    <rPh sb="25" eb="28">
+      <t>モウシコミショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.app.text}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>${inputEntity.app.number}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.app.text}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -904,24 +918,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524F9D9D-5F5D-44B4-9C24-6FD4BE352E36}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9140625" style="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="17.4140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6"/>
     <row r="2" spans="1:6" ht="24.75" customHeight="1">
       <c r="C2" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -931,14 +943,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>C4</f>
-        <v>${app.text}</v>
+        <v>${inputEntity.app.text}</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -947,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -963,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -971,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -987,24 +999,24 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" thickBot="1">
+    <row r="12" spans="1:6" ht="18.5" thickBot="1">
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>9</v>
@@ -1020,7 +1032,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" thickBot="1">
+    <row r="13" spans="1:6" ht="18.5" thickBot="1">
       <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1050,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C404" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xqCvZTZtUWMYvzay2F3eskw+aFPIwjCRxbLEO4p6hd9LoEq3t/xerKrQOiTN63o5m/SU2Z/K27oUuqWECxni5Q==" saltValue="tC83xTHSJhYN8LUBMgC1Qw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
